--- a/data/Excel/BBL_Esports_and_GIANTX_stats.xlsx
+++ b/data/Excel/BBL_Esports_and_GIANTX_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -625,28 +625,28 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -691,28 +691,28 @@
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -757,28 +757,28 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -889,28 +889,28 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -956,42 +956,42 @@
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
           <t>0.39</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1038,42 +1038,42 @@
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1202,42 +1202,42 @@
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1284,42 +1284,42 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
